--- a/logs.xlsx
+++ b/logs.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://o3d.outline3d.com/services/meblux/2023-03-20/desktop-loia3at__006.json</t>
+          <t>http://o3d.outline3d.com/services/meblux/2023-03-22/desktop-loia3at__005.json</t>
         </is>
       </c>
     </row>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://o3d.outline3d.com/services/meblux/2023-03-22/desktop-loia3at__005.json</t>
+          <t>http://o3d.outline3d.com/services/meblux/2023-03-28/desktop-loia3at__003.json</t>
         </is>
       </c>
     </row>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://o3d.outline3d.com/services/meblux/2023-03-28/desktop-loia3at__003.json</t>
+          <t>http://o3d.outline3d.com/services/meblux/2023-03-28/desktop-loia3at__005.json</t>
         </is>
       </c>
     </row>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Succes</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Отсутсвует</t>
+          <t>PilImage</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Succes</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://o3d.outline3d.com/services/meblux/2023-03-28/desktop-loia3at__005.json</t>
+          <t>Отсутсвует</t>
         </is>
       </c>
     </row>
